--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1176943333333333</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N2">
-        <v>0.353083</v>
+        <v>3.54914</v>
       </c>
       <c r="O2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q2">
-        <v>16.81938567899778</v>
+        <v>3.638064491397778</v>
       </c>
       <c r="R2">
-        <v>151.37447111098</v>
+        <v>32.74258042258001</v>
       </c>
       <c r="S2">
-        <v>0.03250975748438062</v>
+        <v>0.01643556269376335</v>
       </c>
       <c r="T2">
-        <v>0.03250975748438063</v>
+        <v>0.01643556269376335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.183046666666667</v>
+        <v>0.718166</v>
       </c>
       <c r="N3">
-        <v>3.54914</v>
+        <v>2.154498</v>
       </c>
       <c r="O3">
-        <v>0.5859837360842608</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P3">
-        <v>0.5859837360842609</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q3">
-        <v>169.0660680031556</v>
+        <v>2.208479426167334</v>
       </c>
       <c r="R3">
-        <v>1521.5946120284</v>
+        <v>19.876314835506</v>
       </c>
       <c r="S3">
-        <v>0.3267834494385587</v>
+        <v>0.009977173893559496</v>
       </c>
       <c r="T3">
-        <v>0.3267834494385589</v>
+        <v>0.009977173893559496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>63.967809</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>191.903427</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.718166</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N4">
-        <v>2.154498</v>
+        <v>3.54914</v>
       </c>
       <c r="O4">
-        <v>0.3557201990978286</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P4">
-        <v>0.3557201990978286</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q4">
-        <v>102.6312023139867</v>
+        <v>75.67690321141998</v>
       </c>
       <c r="R4">
-        <v>923.6808208258799</v>
+        <v>681.09212890278</v>
       </c>
       <c r="S4">
-        <v>0.1983732082274793</v>
+        <v>0.341883023278479</v>
       </c>
       <c r="T4">
-        <v>0.1983732082274793</v>
+        <v>0.341883023278479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1176943333333333</v>
+        <v>0.718166</v>
       </c>
       <c r="N5">
-        <v>0.353083</v>
+        <v>2.154498</v>
       </c>
       <c r="O5">
-        <v>0.05829606481791055</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P5">
-        <v>0.05829606481791055</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q5">
-        <v>7.528648635049</v>
+        <v>45.939505518294</v>
       </c>
       <c r="R5">
-        <v>67.757837715441</v>
+        <v>413.455549664646</v>
       </c>
       <c r="S5">
-        <v>0.01455193108605501</v>
+        <v>0.2075393728867941</v>
       </c>
       <c r="T5">
-        <v>0.01455193108605501</v>
+        <v>0.2075393728867941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.967809</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H6">
-        <v>191.903427</v>
+        <v>148.15321</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>3.54914</v>
       </c>
       <c r="O6">
-        <v>0.5859837360842608</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P6">
-        <v>0.5859837360842609</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q6">
-        <v>75.67690321142</v>
+        <v>58.42405374882222</v>
       </c>
       <c r="R6">
-        <v>681.09212890278</v>
+        <v>525.8164837394</v>
       </c>
       <c r="S6">
-        <v>0.1462739375579149</v>
+        <v>0.2639404003098464</v>
       </c>
       <c r="T6">
-        <v>0.146273937557915</v>
+        <v>0.2639404003098464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.967809</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H7">
-        <v>191.903427</v>
+        <v>148.15321</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>2.154498</v>
       </c>
       <c r="O7">
-        <v>0.3557201990978286</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P7">
-        <v>0.3557201990978286</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q7">
-        <v>45.939505518294</v>
+        <v>35.46619940428666</v>
       </c>
       <c r="R7">
-        <v>413.455549664646</v>
+        <v>319.19579463858</v>
       </c>
       <c r="S7">
-        <v>0.08879528728668144</v>
+        <v>0.1602244669375577</v>
       </c>
       <c r="T7">
-        <v>0.08879528728668144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>49.38440333333333</v>
-      </c>
-      <c r="H8">
-        <v>148.15321</v>
-      </c>
-      <c r="I8">
-        <v>0.1927124289189298</v>
-      </c>
-      <c r="J8">
-        <v>0.1927124289189298</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1176943333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.353083</v>
-      </c>
-      <c r="O8">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="P8">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="Q8">
-        <v>5.812264427381111</v>
-      </c>
-      <c r="R8">
-        <v>52.31037984643</v>
-      </c>
-      <c r="S8">
-        <v>0.01123437624747491</v>
-      </c>
-      <c r="T8">
-        <v>0.01123437624747491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>49.38440333333333</v>
-      </c>
-      <c r="H9">
-        <v>148.15321</v>
-      </c>
-      <c r="I9">
-        <v>0.1927124289189298</v>
-      </c>
-      <c r="J9">
-        <v>0.1927124289189298</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.183046666666667</v>
-      </c>
-      <c r="N9">
-        <v>3.54914</v>
-      </c>
-      <c r="O9">
-        <v>0.5859837360842608</v>
-      </c>
-      <c r="P9">
-        <v>0.5859837360842609</v>
-      </c>
-      <c r="Q9">
-        <v>58.42405374882222</v>
-      </c>
-      <c r="R9">
-        <v>525.8164837394</v>
-      </c>
-      <c r="S9">
-        <v>0.112926349087787</v>
-      </c>
-      <c r="T9">
-        <v>0.1129263490877871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>49.38440333333333</v>
-      </c>
-      <c r="H10">
-        <v>148.15321</v>
-      </c>
-      <c r="I10">
-        <v>0.1927124289189298</v>
-      </c>
-      <c r="J10">
-        <v>0.1927124289189298</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.718166</v>
-      </c>
-      <c r="N10">
-        <v>2.154498</v>
-      </c>
-      <c r="O10">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="P10">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="Q10">
-        <v>35.46619940428666</v>
-      </c>
-      <c r="R10">
-        <v>319.19579463858</v>
-      </c>
-      <c r="S10">
-        <v>0.06855170358366787</v>
-      </c>
-      <c r="T10">
-        <v>0.06855170358366787</v>
+        <v>0.1602244669375577</v>
       </c>
     </row>
   </sheetData>
